--- a/GeoRef/DWA_GeoRef_studyarea_AL.xlsx
+++ b/GeoRef/DWA_GeoRef_studyarea_AL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\GeoRef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C400B9-4BB6-4E66-B418-B046F7D10C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E98A6-0645-440D-998C-6EA607105CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="0" windowWidth="11328" windowHeight="11712" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
+    <workbookView xWindow="8160" yWindow="0" windowWidth="8112" windowHeight="11700" tabRatio="599" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11181" uniqueCount="3903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11360" uniqueCount="4063">
   <si>
     <t>ID</t>
   </si>
@@ -11766,6 +11766,486 @@
   </si>
   <si>
     <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Obersulzbach-Morzweiler</t>
+  </si>
+  <si>
+    <t>Abgefragt wird 1x Morzweiler und einmal Obersulzbach Kreis Tann. Co-ords sind von Obersulzbach</t>
+  </si>
+  <si>
+    <t>Kreis Tann</t>
+  </si>
+  <si>
+    <t>Niedersulzbach</t>
+  </si>
+  <si>
+    <t>Bretten</t>
+  </si>
+  <si>
+    <t>Letzte Seite unten steht Bretten, überall sonst Sternenberg</t>
+  </si>
+  <si>
+    <t>St. Kosman</t>
+  </si>
+  <si>
+    <t>Brückensweiler</t>
+  </si>
+  <si>
+    <t>Diefmatten</t>
+  </si>
+  <si>
+    <t>Falkweiler</t>
+  </si>
+  <si>
+    <t>Gildweiler</t>
+  </si>
+  <si>
+    <t>Gildweiler, Falkweiler und Hecken sind alle als ein Maurer Ort aufgelistet - daher selbe Co-ords</t>
+  </si>
+  <si>
+    <t>Niederburnhaupt</t>
+  </si>
+  <si>
+    <t>Oberburnhaupt</t>
+  </si>
+  <si>
+    <t>Illfurt</t>
+  </si>
+  <si>
+    <t>29095, 29095</t>
+  </si>
+  <si>
+    <t>Niedermorschweiler</t>
+  </si>
+  <si>
+    <t>Galfingen</t>
+  </si>
+  <si>
+    <t>Hochstatt</t>
+  </si>
+  <si>
+    <t>Zillisheim</t>
+  </si>
+  <si>
+    <t>Reinigen</t>
+  </si>
+  <si>
+    <t>Heimsbrunn</t>
+  </si>
+  <si>
+    <t>Didenheim</t>
+  </si>
+  <si>
+    <t>Brunstatt</t>
+  </si>
+  <si>
+    <t>Flachslanden</t>
+  </si>
+  <si>
+    <t>Fröningen</t>
+  </si>
+  <si>
+    <t>Bernweiler</t>
+  </si>
+  <si>
+    <t>Balschweiler</t>
+  </si>
+  <si>
+    <t>Ort ist in y'10 aber sollte bei y'9 sein</t>
+  </si>
+  <si>
+    <t>Enschingen</t>
+  </si>
+  <si>
+    <t>Geispitzen</t>
+  </si>
+  <si>
+    <t>Rixheim</t>
+  </si>
+  <si>
+    <t>26570, 26570</t>
+  </si>
+  <si>
+    <t>26570, 26571</t>
+  </si>
+  <si>
+    <t>Mülhausen-Riedisheim</t>
+  </si>
+  <si>
+    <t>Brubach</t>
+  </si>
+  <si>
+    <t>Niedersteinbrunn</t>
+  </si>
+  <si>
+    <t>Landser</t>
+  </si>
+  <si>
+    <t>Dietweiler</t>
+  </si>
+  <si>
+    <t>Schlierbach</t>
+  </si>
+  <si>
+    <t>Zimmersheim</t>
+  </si>
+  <si>
+    <t>Eschenweiler</t>
+  </si>
+  <si>
+    <t>Habsheim</t>
+  </si>
+  <si>
+    <t>Kembs</t>
+  </si>
+  <si>
+    <t>29868, 29868, 29868</t>
+  </si>
+  <si>
+    <t>Kleinlandau</t>
+  </si>
+  <si>
+    <t>Niffer</t>
+  </si>
+  <si>
+    <t>Bamlach</t>
+  </si>
+  <si>
+    <t>Bellingen</t>
+  </si>
+  <si>
+    <t>Hertingen</t>
+  </si>
+  <si>
+    <t>Liel</t>
+  </si>
+  <si>
+    <t>Kleinkembs</t>
+  </si>
+  <si>
+    <t>Blansingen</t>
+  </si>
+  <si>
+    <t>Huttingen</t>
+  </si>
+  <si>
+    <t>Wintersweiler</t>
+  </si>
+  <si>
+    <t>Mappach</t>
+  </si>
+  <si>
+    <t>Holzen</t>
+  </si>
+  <si>
+    <t>Wollbach</t>
+  </si>
+  <si>
+    <t>Tannenkirch</t>
+  </si>
+  <si>
+    <t>Riedlingen</t>
+  </si>
+  <si>
+    <t>Feuerbach</t>
+  </si>
+  <si>
+    <t>Malsburg</t>
+  </si>
+  <si>
+    <t>132763, 132763</t>
+  </si>
+  <si>
+    <t>Endenburg</t>
+  </si>
+  <si>
+    <t>Weitenau</t>
+  </si>
+  <si>
+    <t>Wieslet</t>
+  </si>
+  <si>
+    <t>Sallneck</t>
+  </si>
+  <si>
+    <t>Tegernau</t>
+  </si>
+  <si>
+    <t>Gresgen</t>
+  </si>
+  <si>
+    <t>Pfaffenberg</t>
+  </si>
+  <si>
+    <t>Ehrsberg</t>
+  </si>
+  <si>
+    <t>Häg</t>
+  </si>
+  <si>
+    <t>Bei Maurer gibts 1x Häg-Rohrbach und 1x Häg (bei Mambach)</t>
+  </si>
+  <si>
+    <t>Happach</t>
+  </si>
+  <si>
+    <t>Vordertodtmoos</t>
+  </si>
+  <si>
+    <t>127921, 127921, 127921, 127921, 127921</t>
+  </si>
+  <si>
+    <t>Rohrberg</t>
+  </si>
+  <si>
+    <t>Mambach</t>
+  </si>
+  <si>
+    <t>Atzenbach</t>
+  </si>
+  <si>
+    <t>Adelsberg</t>
+  </si>
+  <si>
+    <t>Sollte bei y'13 sein, ist aber bei y'14</t>
+  </si>
+  <si>
+    <t>Zell im Wiesental</t>
+  </si>
+  <si>
+    <t>Gersbach</t>
+  </si>
+  <si>
+    <t>Todtmoos-Au</t>
+  </si>
+  <si>
+    <t>Raitbach</t>
+  </si>
+  <si>
+    <t>Hausen im Wiesental</t>
+  </si>
+  <si>
+    <t>Grossherrischwand</t>
+  </si>
+  <si>
+    <t>Wehrhalden</t>
+  </si>
+  <si>
+    <t>Hartschwand</t>
+  </si>
+  <si>
+    <t>Wilfingen</t>
+  </si>
+  <si>
+    <t>Wolpadingen</t>
+  </si>
+  <si>
+    <t>Fröhnd</t>
+  </si>
+  <si>
+    <t>Immeneich</t>
+  </si>
+  <si>
+    <t>Schlageten</t>
+  </si>
+  <si>
+    <t>Brunnadern</t>
+  </si>
+  <si>
+    <t>Remetschwiel</t>
+  </si>
+  <si>
+    <t>Remetschwiel und Brunnadern sind als 1. Mauerer Ort in der Tabelle, daher gleiche Co-ords</t>
+  </si>
+  <si>
+    <t>Tiefenhäusern</t>
+  </si>
+  <si>
+    <t>Ibach</t>
+  </si>
+  <si>
+    <t>Wittenschwand</t>
+  </si>
+  <si>
+    <t>Urberg</t>
+  </si>
+  <si>
+    <t>Höchenschwand</t>
+  </si>
+  <si>
+    <t>Bierbronnen</t>
+  </si>
+  <si>
+    <t>Hürrlingen</t>
+  </si>
+  <si>
+    <t>Riedern im Wald</t>
+  </si>
+  <si>
+    <t>Aichen</t>
+  </si>
+  <si>
+    <t>Krenkingen</t>
+  </si>
+  <si>
+    <t>Attlisberg</t>
+  </si>
+  <si>
+    <t>Sollte bei y'15 sein, ist bei y'16</t>
+  </si>
+  <si>
+    <t>Amrigschwand</t>
+  </si>
+  <si>
+    <t>Brenden</t>
+  </si>
+  <si>
+    <t>Bannholz</t>
+  </si>
+  <si>
+    <t>128820, 128820</t>
+  </si>
+  <si>
+    <t>Nöggenschwiel</t>
+  </si>
+  <si>
+    <t>Berau</t>
+  </si>
+  <si>
+    <t>Ühlingen</t>
+  </si>
+  <si>
+    <t>Dietlingen</t>
+  </si>
+  <si>
+    <t>Urbis</t>
+  </si>
+  <si>
+    <t>Mollau</t>
+  </si>
+  <si>
+    <t>Odern</t>
+  </si>
+  <si>
+    <t>Felleringen</t>
+  </si>
+  <si>
+    <t>Hüssern-Wesserling</t>
+  </si>
+  <si>
+    <t>Mitzach</t>
+  </si>
+  <si>
+    <t>Ranspach</t>
+  </si>
+  <si>
+    <t>St. Amarin</t>
+  </si>
+  <si>
+    <t>Malmerspach</t>
+  </si>
+  <si>
+    <t>Moosch</t>
+  </si>
+  <si>
+    <t>Geishausen</t>
+  </si>
+  <si>
+    <t>Goldbach-Altenbach</t>
+  </si>
+  <si>
+    <t>Rimbach</t>
+  </si>
+  <si>
+    <t>Wattweiler</t>
+  </si>
+  <si>
+    <t>Sollte bei w'10 sein, ist bei w'9</t>
+  </si>
+  <si>
+    <t>Rimbach-Zell</t>
+  </si>
+  <si>
+    <t>32936, 32936</t>
+  </si>
+  <si>
+    <t>Wünheim</t>
+  </si>
+  <si>
+    <t>Berrweiler</t>
+  </si>
+  <si>
+    <t>Sulz</t>
+  </si>
+  <si>
+    <t>Bollweiler</t>
+  </si>
+  <si>
+    <t>Feldkirch</t>
+  </si>
+  <si>
+    <t>Gebweiler</t>
+  </si>
+  <si>
+    <t>23410, 23410, 23410, 23410, 23410</t>
+  </si>
+  <si>
+    <t>Isenheim</t>
+  </si>
+  <si>
+    <t>Rädersheim</t>
+  </si>
+  <si>
+    <t>Ungersheim</t>
+  </si>
+  <si>
+    <t>Merxheim</t>
+  </si>
+  <si>
+    <t>Pulversheim</t>
+  </si>
+  <si>
+    <t>Ensisheim</t>
+  </si>
+  <si>
+    <t>Regisheim</t>
+  </si>
+  <si>
+    <t>Hirzfelden</t>
+  </si>
+  <si>
+    <t>Münchhausen</t>
+  </si>
+  <si>
+    <t>Roggenhausen</t>
+  </si>
+  <si>
+    <t>Rumersheim</t>
+  </si>
+  <si>
+    <t>Fessenheim</t>
+  </si>
+  <si>
+    <t>23851, 23851</t>
+  </si>
+  <si>
+    <t>Zienken</t>
+  </si>
+  <si>
+    <t>Grissheim</t>
+  </si>
+  <si>
+    <t>Seefelden</t>
+  </si>
+  <si>
+    <t>Buggingen</t>
+  </si>
+  <si>
+    <t>Heitersheim</t>
+  </si>
+  <si>
+    <t>Tunsel</t>
   </si>
 </sst>
 </file>
@@ -11924,7 +12404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11944,12 +12424,13 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -12272,8 +12753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:Q3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2133" sqref="H2133"/>
+    <sheetView tabSelected="1" topLeftCell="F1428" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1443" sqref="H1443:K1444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44334,7 +44815,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="1393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1393">
         <v>2916</v>
       </c>
@@ -44357,7 +44838,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="1394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1394">
         <v>2917</v>
       </c>
@@ -44379,8 +44860,20 @@
       <c r="G1394" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="1395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1394" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I1394" s="10">
+        <v>27759</v>
+      </c>
+      <c r="J1394" s="10">
+        <v>6.9552100000000001</v>
+      </c>
+      <c r="K1394" s="10">
+        <v>47.882550000000002</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1395">
         <v>2918</v>
       </c>
@@ -44403,7 +44896,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="1396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1396">
         <v>2919</v>
       </c>
@@ -44425,8 +44918,20 @@
       <c r="G1396" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="1397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1396" t="s">
+        <v>4021</v>
+      </c>
+      <c r="I1396" s="10">
+        <v>29697</v>
+      </c>
+      <c r="J1396" s="10">
+        <v>6.9748799999999997</v>
+      </c>
+      <c r="K1396" s="10">
+        <v>47.872450000000001</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1397">
         <v>2920</v>
       </c>
@@ -44448,8 +44953,20 @@
       <c r="G1397" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1397" t="s">
+        <v>4022</v>
+      </c>
+      <c r="I1397" s="10">
+        <v>27762</v>
+      </c>
+      <c r="J1397" s="10">
+        <v>6.97525</v>
+      </c>
+      <c r="K1397" s="10">
+        <v>47.910080000000001</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1398">
         <v>2921</v>
       </c>
@@ -44471,8 +44988,20 @@
       <c r="G1398" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="1399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1398" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I1398" s="10">
+        <v>27851</v>
+      </c>
+      <c r="J1398" s="10">
+        <v>6.9861300000000002</v>
+      </c>
+      <c r="K1398" s="10">
+        <v>47.896210000000004</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1399">
         <v>2922</v>
       </c>
@@ -44494,8 +45023,20 @@
       <c r="G1399" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="1400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1399" t="s">
+        <v>4024</v>
+      </c>
+      <c r="I1399" s="10">
+        <v>26033</v>
+      </c>
+      <c r="J1399" s="10">
+        <v>6.9883600000000001</v>
+      </c>
+      <c r="K1399" s="10">
+        <v>47.885190000000001</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1400">
         <v>2923</v>
       </c>
@@ -44517,8 +45058,20 @@
       <c r="G1400" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1400" t="s">
+        <v>4025</v>
+      </c>
+      <c r="I1400" s="10">
+        <v>33722</v>
+      </c>
+      <c r="J1400" s="10">
+        <v>7.0051899999999998</v>
+      </c>
+      <c r="K1400" s="10">
+        <v>47.871220000000001</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1401">
         <v>2924</v>
       </c>
@@ -44540,8 +45093,20 @@
       <c r="G1401" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="1402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1401" t="s">
+        <v>4026</v>
+      </c>
+      <c r="I1401" s="10">
+        <v>31293</v>
+      </c>
+      <c r="J1401" s="10">
+        <v>7.0111299999999996</v>
+      </c>
+      <c r="K1401" s="10">
+        <v>47.880809999999997</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1402">
         <v>2925</v>
       </c>
@@ -44563,8 +45128,20 @@
       <c r="G1402" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="1403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1402" t="s">
+        <v>4027</v>
+      </c>
+      <c r="I1402" s="10">
+        <v>26613</v>
+      </c>
+      <c r="J1402" s="10">
+        <v>7.03186</v>
+      </c>
+      <c r="K1402" s="10">
+        <v>47.873649999999998</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1403">
         <v>2926</v>
       </c>
@@ -44586,8 +45163,20 @@
       <c r="G1403" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="1404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1403" t="s">
+        <v>4028</v>
+      </c>
+      <c r="I1403" s="10">
+        <v>26966</v>
+      </c>
+      <c r="J1403" s="10">
+        <v>7.0348699999999997</v>
+      </c>
+      <c r="K1403" s="10">
+        <v>47.86486</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1404">
         <v>2927</v>
       </c>
@@ -44609,8 +45198,20 @@
       <c r="G1404" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="1405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1404" t="s">
+        <v>4029</v>
+      </c>
+      <c r="I1404" s="10">
+        <v>23119</v>
+      </c>
+      <c r="J1404" s="10">
+        <v>7.0486500000000003</v>
+      </c>
+      <c r="K1404" s="10">
+        <v>47.860810000000001</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1405">
         <v>2928</v>
       </c>
@@ -44632,8 +45233,20 @@
       <c r="G1405" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="1406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1405" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I1405" s="10">
+        <v>23554</v>
+      </c>
+      <c r="J1405" s="10">
+        <v>7.0707300000000002</v>
+      </c>
+      <c r="K1405" s="10">
+        <v>47.843510000000002</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1406">
         <v>2929</v>
       </c>
@@ -44655,8 +45268,20 @@
       <c r="G1406" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="1407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1406" t="s">
+        <v>4030</v>
+      </c>
+      <c r="I1406" s="10">
+        <v>28259</v>
+      </c>
+      <c r="J1406" s="10">
+        <v>7.0583200000000001</v>
+      </c>
+      <c r="K1406" s="10">
+        <v>47.88017</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1407">
         <v>2930</v>
       </c>
@@ -44678,8 +45303,20 @@
       <c r="G1407" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="1408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1407" t="s">
+        <v>4031</v>
+      </c>
+      <c r="I1407" s="10">
+        <v>26512</v>
+      </c>
+      <c r="J1407" s="10">
+        <v>7.1032599999999997</v>
+      </c>
+      <c r="K1407" s="10">
+        <v>47.87359</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1408">
         <v>2931</v>
       </c>
@@ -44701,31 +45338,58 @@
       <c r="G1408" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="1409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1409">
+      <c r="H1408" t="s">
+        <v>4032</v>
+      </c>
+      <c r="I1408" s="10">
+        <v>32998</v>
+      </c>
+      <c r="J1408" s="10">
+        <v>7.1565799999999999</v>
+      </c>
+      <c r="K1408" s="10">
+        <v>47.904829999999997</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1409" s="12">
         <v>2932</v>
       </c>
-      <c r="B1409" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1409" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1409" t="s">
+      <c r="B1409" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1409" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1409" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E1409">
+      <c r="E1409" s="12">
         <v>9</v>
       </c>
-      <c r="F1409">
+      <c r="F1409" s="12">
         <v>9</v>
       </c>
-      <c r="G1409" t="s">
+      <c r="G1409" s="12" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="1410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1409" s="12" t="s">
+        <v>4033</v>
+      </c>
+      <c r="I1409" s="12">
+        <v>35824</v>
+      </c>
+      <c r="J1409" s="12">
+        <v>7.1776600000000004</v>
+      </c>
+      <c r="K1409" s="12">
+        <v>47.83549</v>
+      </c>
+      <c r="P1409" s="12" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1410">
         <v>2933</v>
       </c>
@@ -44747,8 +45411,20 @@
       <c r="G1410" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="1411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1410" t="s">
+        <v>4035</v>
+      </c>
+      <c r="I1410" s="10" t="s">
+        <v>4036</v>
+      </c>
+      <c r="J1410" s="10">
+        <v>7.1799499999999998</v>
+      </c>
+      <c r="K1410" s="10">
+        <v>47.899500000000003</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1411">
         <v>2934</v>
       </c>
@@ -44771,7 +45447,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="1412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1412">
         <v>2935</v>
       </c>
@@ -44793,8 +45469,20 @@
       <c r="G1412" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="1413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1412" t="s">
+        <v>4037</v>
+      </c>
+      <c r="I1412" s="10">
+        <v>35767</v>
+      </c>
+      <c r="J1412" s="10">
+        <v>7.2096900000000002</v>
+      </c>
+      <c r="K1412" s="10">
+        <v>47.87406</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1413">
         <v>2936</v>
       </c>
@@ -44817,7 +45505,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="1414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1414">
         <v>2937</v>
       </c>
@@ -44839,8 +45527,20 @@
       <c r="G1414" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="1415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1414" t="s">
+        <v>4038</v>
+      </c>
+      <c r="I1414" s="10">
+        <v>25352</v>
+      </c>
+      <c r="J1414" s="10">
+        <v>7.2153299999999998</v>
+      </c>
+      <c r="K1414" s="10">
+        <v>47.848399999999998</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1415">
         <v>2938</v>
       </c>
@@ -44862,8 +45562,20 @@
       <c r="G1415" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="1416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1415" t="s">
+        <v>4039</v>
+      </c>
+      <c r="I1415" s="10">
+        <v>24515</v>
+      </c>
+      <c r="J1415" s="10">
+        <v>7.2286200000000003</v>
+      </c>
+      <c r="K1415" s="10">
+        <v>47.886130000000001</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1416">
         <v>2939</v>
       </c>
@@ -44885,8 +45597,20 @@
       <c r="G1416" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="1417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1416" t="s">
+        <v>4040</v>
+      </c>
+      <c r="I1416" s="10">
+        <v>34087</v>
+      </c>
+      <c r="J1416" s="10">
+        <v>7.2596100000000003</v>
+      </c>
+      <c r="K1416" s="10">
+        <v>47.860059999999997</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1417">
         <v>2940</v>
       </c>
@@ -44908,8 +45632,20 @@
       <c r="G1417" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="1418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1417" t="s">
+        <v>4040</v>
+      </c>
+      <c r="I1417" s="10">
+        <v>34087</v>
+      </c>
+      <c r="J1417" s="10">
+        <v>7.2596100000000003</v>
+      </c>
+      <c r="K1417" s="10">
+        <v>47.860059999999997</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1418">
         <v>2941</v>
       </c>
@@ -44931,8 +45667,20 @@
       <c r="G1418" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="1419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1418" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I1418" s="10">
+        <v>33031</v>
+      </c>
+      <c r="J1418" s="10">
+        <v>7.2719699999999996</v>
+      </c>
+      <c r="K1418" s="10">
+        <v>47.86504</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1419">
         <v>2942</v>
       </c>
@@ -44954,8 +45702,20 @@
       <c r="G1419" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="1420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1419" t="s">
+        <v>4041</v>
+      </c>
+      <c r="I1419" s="10">
+        <v>33031</v>
+      </c>
+      <c r="J1419" s="10">
+        <v>7.2719699999999996</v>
+      </c>
+      <c r="K1419" s="10">
+        <v>47.86504</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1420">
         <v>2943</v>
       </c>
@@ -44977,8 +45737,20 @@
       <c r="G1420" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="1421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1420" t="s">
+        <v>4042</v>
+      </c>
+      <c r="I1420" s="10" t="s">
+        <v>4043</v>
+      </c>
+      <c r="J1420" s="10">
+        <v>7.2107799999999997</v>
+      </c>
+      <c r="K1420" s="10">
+        <v>47.909500000000001</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1421">
         <v>2944</v>
       </c>
@@ -45001,7 +45773,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="1422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1422">
         <v>2945</v>
       </c>
@@ -45023,8 +45795,20 @@
       <c r="G1422" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="1423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1422" t="s">
+        <v>4044</v>
+      </c>
+      <c r="I1422" s="10">
+        <v>31733</v>
+      </c>
+      <c r="J1422" s="10">
+        <v>7.2536500000000004</v>
+      </c>
+      <c r="K1422" s="10">
+        <v>47.902880000000003</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1423">
         <v>2946</v>
       </c>
@@ -45046,8 +45830,20 @@
       <c r="G1423" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="1424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1423" t="s">
+        <v>4045</v>
+      </c>
+      <c r="I1423" s="10">
+        <v>29829</v>
+      </c>
+      <c r="J1423" s="10">
+        <v>7.2821199999999999</v>
+      </c>
+      <c r="K1423" s="10">
+        <v>47.88747</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1424">
         <v>2947</v>
       </c>
@@ -45069,8 +45865,20 @@
       <c r="G1424" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="1425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1424" t="s">
+        <v>4046</v>
+      </c>
+      <c r="I1424" s="10">
+        <v>28504</v>
+      </c>
+      <c r="J1424" s="10">
+        <v>7.3041799999999997</v>
+      </c>
+      <c r="K1424" s="10">
+        <v>47.877890000000001</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1425">
         <v>2948</v>
       </c>
@@ -45092,8 +45900,20 @@
       <c r="G1425" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="1426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1425" t="s">
+        <v>4047</v>
+      </c>
+      <c r="I1425" s="10">
+        <v>26333</v>
+      </c>
+      <c r="J1425" s="10">
+        <v>7.2920499999999997</v>
+      </c>
+      <c r="K1425" s="10">
+        <v>47.910220000000002</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1426">
         <v>2949</v>
       </c>
@@ -45115,8 +45935,20 @@
       <c r="G1426" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="1427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1426" t="s">
+        <v>4048</v>
+      </c>
+      <c r="I1426" s="10">
+        <v>25873</v>
+      </c>
+      <c r="J1426" s="10">
+        <v>7.3018099999999997</v>
+      </c>
+      <c r="K1426" s="10">
+        <v>47.834319999999998</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1427">
         <v>2950</v>
       </c>
@@ -45138,8 +45970,20 @@
       <c r="G1427" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="1428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1427" t="s">
+        <v>4049</v>
+      </c>
+      <c r="I1427" s="10">
+        <v>31828</v>
+      </c>
+      <c r="J1427" s="10">
+        <v>7.3543200000000004</v>
+      </c>
+      <c r="K1427" s="10">
+        <v>47.865220000000001</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1428">
         <v>2951</v>
       </c>
@@ -45161,8 +46005,20 @@
       <c r="G1428" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="1429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1428" t="s">
+        <v>4049</v>
+      </c>
+      <c r="I1428" s="10">
+        <v>31828</v>
+      </c>
+      <c r="J1428" s="10">
+        <v>7.3543200000000004</v>
+      </c>
+      <c r="K1428" s="10">
+        <v>47.865220000000001</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1429">
         <v>2952</v>
       </c>
@@ -45184,8 +46040,20 @@
       <c r="G1429" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="1430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1429" t="s">
+        <v>4050</v>
+      </c>
+      <c r="I1429" s="10">
+        <v>24240</v>
+      </c>
+      <c r="J1429" s="10">
+        <v>7.3530800000000003</v>
+      </c>
+      <c r="K1429" s="10">
+        <v>47.897419999999997</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1430">
         <v>2953</v>
       </c>
@@ -45207,8 +46075,20 @@
       <c r="G1430" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1430" t="s">
+        <v>4051</v>
+      </c>
+      <c r="I1430" s="10">
+        <v>31674</v>
+      </c>
+      <c r="J1430" s="10">
+        <v>7.4473000000000003</v>
+      </c>
+      <c r="K1430" s="10">
+        <v>47.909350000000003</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1431">
         <v>2954</v>
       </c>
@@ -45230,8 +46110,20 @@
       <c r="G1431" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1431" t="s">
+        <v>4052</v>
+      </c>
+      <c r="I1431" s="10">
+        <v>24319</v>
+      </c>
+      <c r="J1431" s="10">
+        <v>7.4527400000000004</v>
+      </c>
+      <c r="K1431" s="10">
+        <v>47.868470000000002</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1432">
         <v>2955</v>
       </c>
@@ -45253,8 +46145,20 @@
       <c r="G1432" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1432" t="s">
+        <v>4053</v>
+      </c>
+      <c r="I1432" s="10">
+        <v>24528</v>
+      </c>
+      <c r="J1432" s="10">
+        <v>7.4670399999999999</v>
+      </c>
+      <c r="K1432" s="10">
+        <v>47.888800000000003</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1433">
         <v>2956</v>
       </c>
@@ -45276,8 +46180,20 @@
       <c r="G1433" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="1434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1433" t="s">
+        <v>4054</v>
+      </c>
+      <c r="I1433" s="10">
+        <v>28110</v>
+      </c>
+      <c r="J1433" s="10">
+        <v>7.5171200000000002</v>
+      </c>
+      <c r="K1433" s="10">
+        <v>47.85248</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1434">
         <v>2957</v>
       </c>
@@ -45299,8 +46215,20 @@
       <c r="G1434" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="1435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1434" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I1434" s="10" t="s">
+        <v>4056</v>
+      </c>
+      <c r="J1434" s="10">
+        <v>7.5371199999999998</v>
+      </c>
+      <c r="K1434" s="10">
+        <v>47.915779999999998</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1435">
         <v>2958</v>
       </c>
@@ -45322,8 +46250,20 @@
       <c r="G1435" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="1436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1435" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I1435" s="10">
+        <v>131030</v>
+      </c>
+      <c r="J1435" s="10">
+        <v>7.5777900000000002</v>
+      </c>
+      <c r="K1435" s="10">
+        <v>47.843029999999999</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1436">
         <v>2959</v>
       </c>
@@ -45345,8 +46285,20 @@
       <c r="G1436" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="1437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1436" t="s">
+        <v>4058</v>
+      </c>
+      <c r="I1436" s="10">
+        <v>133674</v>
+      </c>
+      <c r="J1436" s="10">
+        <v>7.5923800000000004</v>
+      </c>
+      <c r="K1436" s="10">
+        <v>47.873130000000003</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1437">
         <v>2960</v>
       </c>
@@ -45369,7 +46321,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="1438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1438">
         <v>2961</v>
       </c>
@@ -45391,8 +46343,20 @@
       <c r="G1438" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1438" t="s">
+        <v>4059</v>
+      </c>
+      <c r="I1438" s="10">
+        <v>133681</v>
+      </c>
+      <c r="J1438" s="10">
+        <v>7.6396199999999999</v>
+      </c>
+      <c r="K1438" s="10">
+        <v>47.859450000000002</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1439">
         <v>2962</v>
       </c>
@@ -45414,8 +46378,20 @@
       <c r="G1439" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="1440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1439" t="s">
+        <v>4060</v>
+      </c>
+      <c r="I1439" s="10">
+        <v>131504</v>
+      </c>
+      <c r="J1439" s="10">
+        <v>7.6373499999999996</v>
+      </c>
+      <c r="K1439" s="10">
+        <v>47.847900000000003</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1440">
         <v>2963</v>
       </c>
@@ -45437,8 +46413,20 @@
       <c r="G1440" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="1441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1440" t="s">
+        <v>4061</v>
+      </c>
+      <c r="I1440" s="10">
+        <v>130841</v>
+      </c>
+      <c r="J1440" s="10">
+        <v>7.6676799999999998</v>
+      </c>
+      <c r="K1440" s="10">
+        <v>47.871079999999999</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1441">
         <v>2964</v>
       </c>
@@ -45460,8 +46448,20 @@
       <c r="G1441" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="1442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1441" t="s">
+        <v>3884</v>
+      </c>
+      <c r="I1441" s="10">
+        <v>127310</v>
+      </c>
+      <c r="J1441" s="10">
+        <v>7.6522100000000002</v>
+      </c>
+      <c r="K1441" s="10">
+        <v>47.890799999999999</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1442">
         <v>2965</v>
       </c>
@@ -45484,7 +46484,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="1443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1443">
         <v>2966</v>
       </c>
@@ -45506,8 +46506,20 @@
       <c r="G1443" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="1444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1443" t="s">
+        <v>4062</v>
+      </c>
+      <c r="I1443" s="10">
+        <v>129250</v>
+      </c>
+      <c r="J1443" s="10">
+        <v>7.6658099999999996</v>
+      </c>
+      <c r="K1443" s="10">
+        <v>47.903149999999997</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1444">
         <v>2967</v>
       </c>
@@ -45529,8 +46541,20 @@
       <c r="G1444" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="1445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1444" t="s">
+        <v>4062</v>
+      </c>
+      <c r="I1444" s="10">
+        <v>129250</v>
+      </c>
+      <c r="J1444" s="10">
+        <v>7.6658099999999996</v>
+      </c>
+      <c r="K1444" s="10">
+        <v>47.903149999999997</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1445">
         <v>2968</v>
       </c>
@@ -45553,7 +46577,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1446">
         <v>2969</v>
       </c>
@@ -45576,7 +46600,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1447">
         <v>2970</v>
       </c>
@@ -45599,7 +46623,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="1448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1448">
         <v>2971</v>
       </c>
@@ -45622,7 +46646,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="1449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1449">
         <v>2972</v>
       </c>
@@ -45645,7 +46669,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="1450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1450">
         <v>2973</v>
       </c>
@@ -45668,7 +46692,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="1451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1451">
         <v>2974</v>
       </c>
@@ -45691,7 +46715,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="1452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1452">
         <v>2975</v>
       </c>
@@ -45714,7 +46738,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="1453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1453">
         <v>2976</v>
       </c>
@@ -45737,7 +46761,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="1454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1454">
         <v>2977</v>
       </c>
@@ -45760,7 +46784,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="1455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1455">
         <v>2978</v>
       </c>
@@ -45783,7 +46807,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1456">
         <v>2979</v>
       </c>
@@ -48382,7 +49406,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="1569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1569">
         <v>3092</v>
       </c>
@@ -48405,7 +49429,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="1570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1570">
         <v>3093</v>
       </c>
@@ -48428,7 +49452,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="1571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1571">
         <v>3094</v>
       </c>
@@ -48451,7 +49475,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="1572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1572">
         <v>3095</v>
       </c>
@@ -48474,7 +49498,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="1573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1573">
         <v>3096</v>
       </c>
@@ -48497,7 +49521,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="1574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1574">
         <v>3097</v>
       </c>
@@ -48520,7 +49544,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="1575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1575" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1575">
         <v>3098</v>
       </c>
@@ -48543,7 +49567,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="1576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1576">
         <v>3099</v>
       </c>
@@ -48566,7 +49590,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="1577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1577">
         <v>3100</v>
       </c>
@@ -48589,30 +49613,48 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="1578" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1578">
+    <row r="1578" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="12">
         <v>3101</v>
       </c>
-      <c r="B1578" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1578" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1578" t="s">
+      <c r="B1578" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1578" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1578" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1578">
+      <c r="E1578" s="12">
         <v>9</v>
       </c>
-      <c r="F1578">
+      <c r="F1578" s="12">
         <v>1</v>
       </c>
-      <c r="G1578" t="s">
+      <c r="G1578" s="12" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1578" s="12" t="s">
+        <v>3903</v>
+      </c>
+      <c r="I1578" s="12">
+        <v>24914</v>
+      </c>
+      <c r="J1578" s="12">
+        <v>7.0572400000000002</v>
+      </c>
+      <c r="K1578" s="12">
+        <v>47.733719999999998</v>
+      </c>
+      <c r="M1578" s="12" t="s">
+        <v>3905</v>
+      </c>
+      <c r="P1578" s="12" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1579">
         <v>3102</v>
       </c>
@@ -48635,7 +49677,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="1580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1580">
         <v>3103</v>
       </c>
@@ -48657,8 +49699,20 @@
       <c r="G1580" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="1581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1580" t="s">
+        <v>3906</v>
+      </c>
+      <c r="I1580">
+        <v>35825</v>
+      </c>
+      <c r="J1580">
+        <v>7.0907900000000001</v>
+      </c>
+      <c r="K1580">
+        <v>47.716880000000003</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1581">
         <v>3104</v>
       </c>
@@ -48680,31 +49734,58 @@
       <c r="G1581" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="1582" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1582">
+      <c r="H1581" t="s">
+        <v>3907</v>
+      </c>
+      <c r="I1581">
+        <v>35072</v>
+      </c>
+      <c r="J1581">
+        <v>7.0716000000000001</v>
+      </c>
+      <c r="K1581">
+        <v>47.699629999999999</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1582" s="12">
         <v>3105</v>
       </c>
-      <c r="B1582" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1582" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1582" t="s">
+      <c r="B1582" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1582" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1582" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1582">
+      <c r="E1582" s="12">
         <v>9</v>
       </c>
-      <c r="F1582">
+      <c r="F1582" s="12">
         <v>5</v>
       </c>
-      <c r="G1582" t="s">
+      <c r="G1582" s="12" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="1583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1582" s="12" t="s">
+        <v>3907</v>
+      </c>
+      <c r="I1582">
+        <v>35072</v>
+      </c>
+      <c r="J1582">
+        <v>7.0716000000000001</v>
+      </c>
+      <c r="K1582">
+        <v>47.699629999999999</v>
+      </c>
+      <c r="P1582" s="12" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1583">
         <v>3106</v>
       </c>
@@ -48727,7 +49808,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="1584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1584">
         <v>3107</v>
       </c>
@@ -48749,8 +49830,20 @@
       <c r="G1584" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="1585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1584" t="s">
+        <v>3909</v>
+      </c>
+      <c r="I1584">
+        <v>35102</v>
+      </c>
+      <c r="J1584">
+        <v>7.0624799999999999</v>
+      </c>
+      <c r="K1584">
+        <v>47.683390000000003</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1585">
         <v>3108</v>
       </c>
@@ -48772,8 +49865,20 @@
       <c r="G1585" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1585" t="s">
+        <v>3910</v>
+      </c>
+      <c r="I1585">
+        <v>23110</v>
+      </c>
+      <c r="J1585">
+        <v>7.0683999999999996</v>
+      </c>
+      <c r="K1585">
+        <v>47.669730000000001</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1586">
         <v>3109</v>
       </c>
@@ -48795,8 +49900,20 @@
       <c r="G1586" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1586" t="s">
+        <v>3911</v>
+      </c>
+      <c r="I1586">
+        <v>28157</v>
+      </c>
+      <c r="J1586">
+        <v>7.1131900000000003</v>
+      </c>
+      <c r="K1586">
+        <v>47.708280000000002</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1587">
         <v>3110</v>
       </c>
@@ -48818,8 +49935,20 @@
       <c r="G1587" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="1588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1587" t="s">
+        <v>3912</v>
+      </c>
+      <c r="I1587">
+        <v>25420</v>
+      </c>
+      <c r="J1587">
+        <v>7.1346100000000003</v>
+      </c>
+      <c r="K1587">
+        <v>47.689399999999999</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1588">
         <v>3111</v>
       </c>
@@ -48841,8 +49970,23 @@
       <c r="G1588" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="1589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1588" t="s">
+        <v>3913</v>
+      </c>
+      <c r="I1588">
+        <v>25420</v>
+      </c>
+      <c r="J1588">
+        <v>7.1346100000000003</v>
+      </c>
+      <c r="K1588">
+        <v>47.689399999999999</v>
+      </c>
+      <c r="P1588" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1589">
         <v>3112</v>
       </c>
@@ -48865,7 +50009,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="1590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1590">
         <v>3113</v>
       </c>
@@ -48887,8 +50031,20 @@
       <c r="G1590" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1590" t="s">
+        <v>3915</v>
+      </c>
+      <c r="I1590">
+        <v>27882</v>
+      </c>
+      <c r="J1590">
+        <v>7.1603899999999996</v>
+      </c>
+      <c r="K1590">
+        <v>47.716740000000001</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1591">
         <v>3114</v>
       </c>
@@ -48910,8 +50066,20 @@
       <c r="G1591" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1591" t="s">
+        <v>3916</v>
+      </c>
+      <c r="I1591">
+        <v>23365</v>
+      </c>
+      <c r="J1591">
+        <v>7.1498799999999996</v>
+      </c>
+      <c r="K1591">
+        <v>47.728859999999997</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1592">
         <v>3115</v>
       </c>
@@ -48933,8 +50101,20 @@
       <c r="G1592" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1592" t="s">
+        <v>3917</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>3918</v>
+      </c>
+      <c r="J1592">
+        <v>7.2649400000000002</v>
+      </c>
+      <c r="K1592">
+        <v>47.670729999999999</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1593">
         <v>3116</v>
       </c>
@@ -48956,8 +50136,20 @@
       <c r="G1593" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1593" t="s">
+        <v>3919</v>
+      </c>
+      <c r="I1593">
+        <v>29943</v>
+      </c>
+      <c r="J1593">
+        <v>7.2669899999999998</v>
+      </c>
+      <c r="K1593">
+        <v>47.735959999999999</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1594">
         <v>3117</v>
       </c>
@@ -48979,8 +50171,20 @@
       <c r="G1594" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1594" t="s">
+        <v>3920</v>
+      </c>
+      <c r="I1594">
+        <v>34123</v>
+      </c>
+      <c r="J1594">
+        <v>7.2248099999999997</v>
+      </c>
+      <c r="K1594">
+        <v>47.705629999999999</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1595">
         <v>3118</v>
       </c>
@@ -49002,8 +50206,20 @@
       <c r="G1595" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1595" t="s">
+        <v>3921</v>
+      </c>
+      <c r="I1595">
+        <v>30036</v>
+      </c>
+      <c r="J1595">
+        <v>7.2807199999999996</v>
+      </c>
+      <c r="K1595">
+        <v>47.700690000000002</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1596">
         <v>3119</v>
       </c>
@@ -49025,8 +50241,20 @@
       <c r="G1596" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="1597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1596" t="s">
+        <v>3922</v>
+      </c>
+      <c r="I1596">
+        <v>29641</v>
+      </c>
+      <c r="J1596">
+        <v>7.2948500000000003</v>
+      </c>
+      <c r="K1596">
+        <v>47.693869999999997</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1597">
         <v>3120</v>
       </c>
@@ -49048,8 +50276,20 @@
       <c r="G1597" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1597" t="s">
+        <v>3923</v>
+      </c>
+      <c r="I1597">
+        <v>29136</v>
+      </c>
+      <c r="J1597">
+        <v>7.2319000000000004</v>
+      </c>
+      <c r="K1597">
+        <v>47.749110000000002</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1598">
         <v>3121</v>
       </c>
@@ -49071,8 +50311,20 @@
       <c r="G1598" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1598" t="s">
+        <v>3924</v>
+      </c>
+      <c r="I1598">
+        <v>23775</v>
+      </c>
+      <c r="J1598">
+        <v>7.2269600000000001</v>
+      </c>
+      <c r="K1598">
+        <v>47.726819999999996</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1599">
         <v>3122</v>
       </c>
@@ -49094,8 +50346,20 @@
       <c r="G1599" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="1600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1599" t="s">
+        <v>3925</v>
+      </c>
+      <c r="I1599">
+        <v>35551</v>
+      </c>
+      <c r="J1599">
+        <v>7.3029500000000001</v>
+      </c>
+      <c r="K1599">
+        <v>47.717489999999998</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1600">
         <v>3123</v>
       </c>
@@ -49117,8 +50381,20 @@
       <c r="G1600" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="1601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1600" t="s">
+        <v>3926</v>
+      </c>
+      <c r="I1600">
+        <v>23934</v>
+      </c>
+      <c r="J1600">
+        <v>7.3174700000000001</v>
+      </c>
+      <c r="K1600">
+        <v>47.721060000000001</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1601">
         <v>3124</v>
       </c>
@@ -49140,8 +50416,20 @@
       <c r="G1601" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1601" t="s">
+        <v>3927</v>
+      </c>
+      <c r="I1601">
+        <v>28408</v>
+      </c>
+      <c r="J1601">
+        <v>7.30924</v>
+      </c>
+      <c r="K1601">
+        <v>47.696919999999999</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1602">
         <v>3125</v>
       </c>
@@ -49163,8 +50451,20 @@
       <c r="G1602" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="1603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1602" t="s">
+        <v>3928</v>
+      </c>
+      <c r="I1602">
+        <v>30116</v>
+      </c>
+      <c r="J1602">
+        <v>7.2680100000000003</v>
+      </c>
+      <c r="K1602">
+        <v>47.69023</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1603">
         <v>3126</v>
       </c>
@@ -49186,54 +50486,93 @@
       <c r="G1603" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="1604" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1604">
+      <c r="H1603" t="s">
+        <v>3928</v>
+      </c>
+      <c r="I1603">
+        <v>30116</v>
+      </c>
+      <c r="J1603">
+        <v>7.2680100000000003</v>
+      </c>
+      <c r="K1603">
+        <v>47.69023</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1604" s="10">
         <v>3127</v>
       </c>
-      <c r="B1604" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1604" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1604" t="s">
+      <c r="B1604" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1604" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1604" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E1604">
+      <c r="E1604" s="10">
         <v>10</v>
       </c>
-      <c r="F1604">
+      <c r="F1604" s="10">
         <v>12</v>
       </c>
-      <c r="G1604" t="s">
+      <c r="G1604" s="10" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="1605" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1605">
+      <c r="H1604" t="s">
+        <v>3929</v>
+      </c>
+      <c r="I1604">
+        <v>23627</v>
+      </c>
+      <c r="J1604">
+        <v>7.1936799999999996</v>
+      </c>
+      <c r="K1604">
+        <v>47.690849999999998</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1605" s="12">
         <v>3128</v>
       </c>
-      <c r="B1605" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1605" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1605" t="s">
+      <c r="B1605" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1605" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1605" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1605">
+      <c r="E1605" s="12">
         <v>10</v>
       </c>
-      <c r="F1605">
+      <c r="F1605" s="12">
         <v>13</v>
       </c>
-      <c r="G1605" t="s">
+      <c r="G1605" s="12" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="1606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1605" s="12" t="s">
+        <v>3930</v>
+      </c>
+      <c r="I1605" s="12">
+        <v>24173</v>
+      </c>
+      <c r="J1605" s="12">
+        <v>7.1680999999999999</v>
+      </c>
+      <c r="K1605" s="12">
+        <v>47.667720000000003</v>
+      </c>
+      <c r="P1605" s="12" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1606">
         <v>3129</v>
       </c>
@@ -49255,8 +50594,20 @@
       <c r="G1606" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="1607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1606" t="s">
+        <v>3932</v>
+      </c>
+      <c r="I1606">
+        <v>27474</v>
+      </c>
+      <c r="J1606">
+        <v>7.2029300000000003</v>
+      </c>
+      <c r="K1606">
+        <v>47.671010000000003</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1607">
         <v>3130</v>
       </c>
@@ -49278,8 +50629,20 @@
       <c r="G1607" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1607" t="s">
+        <v>3933</v>
+      </c>
+      <c r="I1607">
+        <v>35084</v>
+      </c>
+      <c r="J1607">
+        <v>7.4223600000000003</v>
+      </c>
+      <c r="K1607">
+        <v>47.667389999999997</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1608">
         <v>3131</v>
       </c>
@@ -49301,8 +50664,20 @@
       <c r="G1608" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="1609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1608" t="s">
+        <v>3934</v>
+      </c>
+      <c r="I1608" t="s">
+        <v>3935</v>
+      </c>
+      <c r="J1608">
+        <v>7.3973899999999997</v>
+      </c>
+      <c r="K1608">
+        <v>47.744120000000002</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1609">
         <v>3132</v>
       </c>
@@ -49324,8 +50699,20 @@
       <c r="G1609" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1609" t="s">
+        <v>3934</v>
+      </c>
+      <c r="I1609" t="s">
+        <v>3936</v>
+      </c>
+      <c r="J1609">
+        <v>7.3973899999999997</v>
+      </c>
+      <c r="K1609">
+        <v>47.744120000000002</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1610">
         <v>3133</v>
       </c>
@@ -49347,8 +50734,20 @@
       <c r="G1610" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="1611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1610" t="s">
+        <v>3937</v>
+      </c>
+      <c r="I1610">
+        <v>31572</v>
+      </c>
+      <c r="J1610">
+        <v>7.36836</v>
+      </c>
+      <c r="K1610">
+        <v>47.749659999999999</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1611">
         <v>3134</v>
       </c>
@@ -49370,8 +50769,20 @@
       <c r="G1611" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="1612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1611" t="s">
+        <v>3938</v>
+      </c>
+      <c r="I1611">
+        <v>27563</v>
+      </c>
+      <c r="J1611">
+        <v>7.3596399999999997</v>
+      </c>
+      <c r="K1611">
+        <v>47.70073</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1612">
         <v>3135</v>
       </c>
@@ -49393,8 +50804,20 @@
       <c r="G1612" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="1613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1612" t="s">
+        <v>3939</v>
+      </c>
+      <c r="I1612">
+        <v>26719</v>
+      </c>
+      <c r="J1612">
+        <v>7.3660899999999998</v>
+      </c>
+      <c r="K1612">
+        <v>47.672190000000001</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1613">
         <v>3136</v>
       </c>
@@ -49416,8 +50839,20 @@
       <c r="G1613" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="1614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1613" t="s">
+        <v>3940</v>
+      </c>
+      <c r="I1613">
+        <v>33844</v>
+      </c>
+      <c r="J1613">
+        <v>7.3960100000000004</v>
+      </c>
+      <c r="K1613">
+        <v>47.686369999999997</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1614">
         <v>3137</v>
       </c>
@@ -49439,8 +50874,20 @@
       <c r="G1614" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="1615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1614" t="s">
+        <v>3941</v>
+      </c>
+      <c r="I1614">
+        <v>31129</v>
+      </c>
+      <c r="J1614">
+        <v>7.4029600000000002</v>
+      </c>
+      <c r="K1614">
+        <v>47.692880000000002</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1615">
         <v>3138</v>
       </c>
@@ -49462,8 +50909,20 @@
       <c r="G1615" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="1616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1615" t="s">
+        <v>3942</v>
+      </c>
+      <c r="I1615">
+        <v>27573</v>
+      </c>
+      <c r="J1615">
+        <v>7.4066000000000001</v>
+      </c>
+      <c r="K1615">
+        <v>47.682839999999999</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1616">
         <v>3139</v>
       </c>
@@ -49485,8 +50944,20 @@
       <c r="G1616" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="1617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1616" t="s">
+        <v>3943</v>
+      </c>
+      <c r="I1616">
+        <v>23126</v>
+      </c>
+      <c r="J1616">
+        <v>7.3889199999999997</v>
+      </c>
+      <c r="K1616">
+        <v>47.720129999999997</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1617">
         <v>3140</v>
       </c>
@@ -49508,8 +50979,20 @@
       <c r="G1617" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="1618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1617" t="s">
+        <v>3944</v>
+      </c>
+      <c r="I1617">
+        <v>32750</v>
+      </c>
+      <c r="J1617">
+        <v>7.3981199999999996</v>
+      </c>
+      <c r="K1617">
+        <v>47.712389999999999</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1618">
         <v>3141</v>
       </c>
@@ -49531,8 +51014,20 @@
       <c r="G1618" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="1619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1618" t="s">
+        <v>3945</v>
+      </c>
+      <c r="I1618">
+        <v>30489</v>
+      </c>
+      <c r="J1618">
+        <v>7.4166600000000003</v>
+      </c>
+      <c r="K1618">
+        <v>47.728639999999999</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1619">
         <v>3142</v>
       </c>
@@ -49554,8 +51049,20 @@
       <c r="G1619" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="1620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1619" t="s">
+        <v>3946</v>
+      </c>
+      <c r="I1619" t="s">
+        <v>3947</v>
+      </c>
+      <c r="J1619">
+        <v>7.5039899999999999</v>
+      </c>
+      <c r="K1619">
+        <v>47.6877</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1620">
         <v>3143</v>
       </c>
@@ -49577,8 +51084,20 @@
       <c r="G1620" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="1621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1620" t="s">
+        <v>3948</v>
+      </c>
+      <c r="I1620">
+        <v>23504</v>
+      </c>
+      <c r="J1620">
+        <v>7.5208199999999996</v>
+      </c>
+      <c r="K1620">
+        <v>47.73028</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1621">
         <v>3144</v>
       </c>
@@ -49600,8 +51119,20 @@
       <c r="G1621" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="1622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1621" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I1621">
+        <v>31300</v>
+      </c>
+      <c r="J1621">
+        <v>7.5090399999999997</v>
+      </c>
+      <c r="K1621">
+        <v>47.713529999999999</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1622">
         <v>3145</v>
       </c>
@@ -49623,8 +51154,20 @@
       <c r="G1622" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="1623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1622" t="s">
+        <v>3950</v>
+      </c>
+      <c r="I1622">
+        <v>132536</v>
+      </c>
+      <c r="J1622">
+        <v>7.5494199999999996</v>
+      </c>
+      <c r="K1622">
+        <v>47.717529999999996</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1623">
         <v>3146</v>
       </c>
@@ -49647,7 +51190,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="1624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1624">
         <v>3147</v>
       </c>
@@ -49669,8 +51212,20 @@
       <c r="G1624" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="1625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1624" t="s">
+        <v>3951</v>
+      </c>
+      <c r="I1624">
+        <v>127624</v>
+      </c>
+      <c r="J1624">
+        <v>7.5572800000000004</v>
+      </c>
+      <c r="K1624">
+        <v>47.731900000000003</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1625">
         <v>3148</v>
       </c>
@@ -49692,8 +51247,20 @@
       <c r="G1625" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1625" t="s">
+        <v>3952</v>
+      </c>
+      <c r="I1625">
+        <v>128590</v>
+      </c>
+      <c r="J1625">
+        <v>7.5844199999999997</v>
+      </c>
+      <c r="K1625">
+        <v>47.723100000000002</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1626">
         <v>3149</v>
       </c>
@@ -49715,8 +51282,20 @@
       <c r="G1626" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="1627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1626" t="s">
+        <v>3953</v>
+      </c>
+      <c r="I1626">
+        <v>131259</v>
+      </c>
+      <c r="J1626">
+        <v>7.6040000000000001</v>
+      </c>
+      <c r="K1626">
+        <v>47.739280000000001</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1627">
         <v>3150</v>
       </c>
@@ -49738,8 +51317,20 @@
       <c r="G1627" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="1628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1627" t="s">
+        <v>3954</v>
+      </c>
+      <c r="I1627">
+        <v>127620</v>
+      </c>
+      <c r="J1627">
+        <v>7.5227899999999996</v>
+      </c>
+      <c r="K1627">
+        <v>47.691000000000003</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1628">
         <v>3151</v>
       </c>
@@ -49761,8 +51352,20 @@
       <c r="G1628" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="1629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1628" t="s">
+        <v>3955</v>
+      </c>
+      <c r="I1628">
+        <v>127514</v>
+      </c>
+      <c r="J1628">
+        <v>7.5414099999999999</v>
+      </c>
+      <c r="K1628">
+        <v>47.691580000000002</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1629">
         <v>3152</v>
       </c>
@@ -49784,8 +51387,20 @@
       <c r="G1629" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="1630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1629" t="s">
+        <v>3956</v>
+      </c>
+      <c r="I1629">
+        <v>130049</v>
+      </c>
+      <c r="J1629">
+        <v>7.5496999999999996</v>
+      </c>
+      <c r="K1629">
+        <v>47.672939999999997</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1630">
         <v>3153</v>
       </c>
@@ -49807,8 +51422,20 @@
       <c r="G1630" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="1631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1630" t="s">
+        <v>3957</v>
+      </c>
+      <c r="I1630">
+        <v>129729</v>
+      </c>
+      <c r="J1630">
+        <v>7.5675600000000003</v>
+      </c>
+      <c r="K1630">
+        <v>47.673740000000002</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1631">
         <v>3154</v>
       </c>
@@ -49830,8 +51457,20 @@
       <c r="G1631" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="1632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1631" t="s">
+        <v>3958</v>
+      </c>
+      <c r="I1631">
+        <v>133039</v>
+      </c>
+      <c r="J1631">
+        <v>7.5979400000000004</v>
+      </c>
+      <c r="K1631">
+        <v>47.680329999999998</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1632">
         <v>3155</v>
       </c>
@@ -49853,8 +51492,20 @@
       <c r="G1632" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1632" t="s">
+        <v>3959</v>
+      </c>
+      <c r="I1632">
+        <v>128627</v>
+      </c>
+      <c r="J1632">
+        <v>7.6277499999999998</v>
+      </c>
+      <c r="K1632">
+        <v>47.69538</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1633">
         <v>3156</v>
       </c>
@@ -49876,8 +51527,20 @@
       <c r="G1633" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="1634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1633" t="s">
+        <v>3960</v>
+      </c>
+      <c r="I1633">
+        <v>129830</v>
+      </c>
+      <c r="J1633">
+        <v>7.6538700000000004</v>
+      </c>
+      <c r="K1633">
+        <v>47.670540000000003</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1634">
         <v>3157</v>
       </c>
@@ -49899,8 +51562,20 @@
       <c r="G1634" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="1635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1634" t="s">
+        <v>3961</v>
+      </c>
+      <c r="I1634">
+        <v>130419</v>
+      </c>
+      <c r="J1634">
+        <v>7.6102999999999996</v>
+      </c>
+      <c r="K1634">
+        <v>47.71116</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1635">
         <v>3158</v>
       </c>
@@ -49922,8 +51597,20 @@
       <c r="G1635" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="1636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1635" t="s">
+        <v>3962</v>
+      </c>
+      <c r="I1635">
+        <v>133084</v>
+      </c>
+      <c r="J1635">
+        <v>7.6356099999999998</v>
+      </c>
+      <c r="K1635">
+        <v>47.715789999999998</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1636">
         <v>3159</v>
       </c>
@@ -49945,8 +51632,20 @@
       <c r="G1636" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1636" t="s">
+        <v>3963</v>
+      </c>
+      <c r="I1636">
+        <v>134012</v>
+      </c>
+      <c r="J1636">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="K1636">
+        <v>47.736530000000002</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1637">
         <v>3160</v>
       </c>
@@ -49969,7 +51668,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="1638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1638" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1638">
         <v>3161</v>
       </c>
@@ -49991,8 +51690,20 @@
       <c r="G1638" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="1639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1638" t="s">
+        <v>3964</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>3965</v>
+      </c>
+      <c r="J1638">
+        <v>7.7086600000000001</v>
+      </c>
+      <c r="K1638">
+        <v>47.732570000000003</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1639">
         <v>3162</v>
       </c>
@@ -50014,8 +51725,20 @@
       <c r="G1639" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="1640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1639" t="s">
+        <v>3966</v>
+      </c>
+      <c r="I1639">
+        <v>132787</v>
+      </c>
+      <c r="J1639">
+        <v>7.73306</v>
+      </c>
+      <c r="K1639">
+        <v>47.71161</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1640">
         <v>3163</v>
       </c>
@@ -50038,7 +51761,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1641" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1641">
         <v>3164</v>
       </c>
@@ -50060,8 +51783,20 @@
       <c r="G1641" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="1642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1641" t="s">
+        <v>3967</v>
+      </c>
+      <c r="I1641">
+        <v>127421</v>
+      </c>
+      <c r="J1641">
+        <v>7.76525</v>
+      </c>
+      <c r="K1641">
+        <v>47.677750000000003</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1642">
         <v>3165</v>
       </c>
@@ -50083,8 +51818,20 @@
       <c r="G1642" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="1643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1642" t="s">
+        <v>3968</v>
+      </c>
+      <c r="I1642">
+        <v>133005</v>
+      </c>
+      <c r="J1642">
+        <v>7.79819</v>
+      </c>
+      <c r="K1642">
+        <v>47.689300000000003</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1643">
         <v>3166</v>
       </c>
@@ -50106,8 +51853,20 @@
       <c r="G1643" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="1644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1643" t="s">
+        <v>3969</v>
+      </c>
+      <c r="I1643">
+        <v>130082</v>
+      </c>
+      <c r="J1643">
+        <v>7.7724000000000002</v>
+      </c>
+      <c r="K1643">
+        <v>47.722969999999997</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1644">
         <v>3167</v>
       </c>
@@ -50129,8 +51888,20 @@
       <c r="G1644" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="1645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1644" t="s">
+        <v>3970</v>
+      </c>
+      <c r="I1644">
+        <v>128971</v>
+      </c>
+      <c r="J1644">
+        <v>7.7963800000000001</v>
+      </c>
+      <c r="K1644">
+        <v>47.720370000000003</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1645">
         <v>3168</v>
       </c>
@@ -50152,8 +51923,20 @@
       <c r="G1645" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="1646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1645" t="s">
+        <v>3971</v>
+      </c>
+      <c r="I1645">
+        <v>127633</v>
+      </c>
+      <c r="J1645">
+        <v>7.8205299999999998</v>
+      </c>
+      <c r="K1645">
+        <v>47.711269999999999</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1646">
         <v>3169</v>
       </c>
@@ -50175,8 +51958,20 @@
       <c r="G1646" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="1647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1646" t="s">
+        <v>3972</v>
+      </c>
+      <c r="I1646">
+        <v>133153</v>
+      </c>
+      <c r="J1646">
+        <v>7.86972</v>
+      </c>
+      <c r="K1646">
+        <v>47.734520000000003</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1647">
         <v>3170</v>
       </c>
@@ -50198,31 +51993,52 @@
       <c r="G1647" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="1648" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1648">
+      <c r="H1647" t="s">
+        <v>3973</v>
+      </c>
+      <c r="I1647">
+        <v>131471</v>
+      </c>
+      <c r="J1647">
+        <v>7.9062900000000003</v>
+      </c>
+      <c r="K1647">
+        <v>47.743180000000002</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1648" s="12">
         <v>3171</v>
       </c>
-      <c r="B1648" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1648" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1648" t="s">
+      <c r="B1648" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1648" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1648" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1648">
-        <v>14</v>
-      </c>
-      <c r="F1648">
+      <c r="E1648" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1648" s="12">
         <v>3</v>
       </c>
-      <c r="G1648" t="s">
+      <c r="G1648" s="12" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="1649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1648" s="12" t="s">
+        <v>3974</v>
+      </c>
+      <c r="M1648" s="12" t="s">
+        <v>3817</v>
+      </c>
+      <c r="P1648" s="12" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1649">
         <v>3172</v>
       </c>
@@ -50244,31 +52060,55 @@
       <c r="G1649" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="1650" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1650">
+      <c r="H1649" t="s">
+        <v>3976</v>
+      </c>
+      <c r="I1649">
+        <v>130377</v>
+      </c>
+      <c r="J1649">
+        <v>7.9513699999999998</v>
+      </c>
+      <c r="K1649">
+        <v>47.741199999999999</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1650" s="19">
         <v>3173</v>
       </c>
-      <c r="B1650" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1650" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1650" t="s">
+      <c r="B1650" s="20">
+        <v>44826</v>
+      </c>
+      <c r="C1650" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1650" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E1650">
-        <v>14</v>
-      </c>
-      <c r="F1650">
+      <c r="E1650" s="19">
+        <v>14</v>
+      </c>
+      <c r="F1650" s="19">
         <v>5</v>
       </c>
-      <c r="G1650" t="s">
+      <c r="G1650" s="19" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="1651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1650" s="19" t="s">
+        <v>3977</v>
+      </c>
+      <c r="I1650" s="19" t="s">
+        <v>3978</v>
+      </c>
+      <c r="J1650" s="19">
+        <v>8.0043799999999994</v>
+      </c>
+      <c r="K1650" s="19">
+        <v>47.741329999999998</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1651">
         <v>3174</v>
       </c>
@@ -50291,30 +52131,42 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="1652" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1652">
+    <row r="1652" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1652" s="10">
         <v>3175</v>
       </c>
-      <c r="B1652" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1652" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1652" t="s">
+      <c r="B1652" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1652" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1652" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E1652">
-        <v>14</v>
-      </c>
-      <c r="F1652">
+      <c r="E1652" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1652" s="10">
         <v>7</v>
       </c>
-      <c r="G1652" t="s">
+      <c r="G1652" s="10" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="1653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1652" s="10" t="s">
+        <v>3979</v>
+      </c>
+      <c r="I1652" s="23">
+        <v>133785</v>
+      </c>
+      <c r="J1652" s="23">
+        <v>7.9041199999999998</v>
+      </c>
+      <c r="K1652" s="23">
+        <v>47.7181</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1653">
         <v>3176</v>
       </c>
@@ -50336,8 +52188,20 @@
       <c r="G1653" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="1654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1653" t="s">
+        <v>3980</v>
+      </c>
+      <c r="I1653" s="25">
+        <v>128808</v>
+      </c>
+      <c r="J1653" s="25">
+        <v>7.8836300000000001</v>
+      </c>
+      <c r="K1653" s="25">
+        <v>47.728389999999997</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1654">
         <v>3177</v>
       </c>
@@ -50359,31 +52223,58 @@
       <c r="G1654" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="1655" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1655">
+      <c r="H1654" t="s">
+        <v>3981</v>
+      </c>
+      <c r="I1654" s="25">
+        <v>131927</v>
+      </c>
+      <c r="J1654" s="25">
+        <v>7.8734999999999999</v>
+      </c>
+      <c r="K1654" s="25">
+        <v>47.715319999999998</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1655" s="12">
         <v>3178</v>
       </c>
-      <c r="B1655" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1655" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1655" t="s">
+      <c r="B1655" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1655" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1655" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1655">
-        <v>14</v>
-      </c>
-      <c r="F1655">
+      <c r="E1655" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1655" s="12">
         <v>10</v>
       </c>
-      <c r="G1655" t="s">
+      <c r="G1655" s="12" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1655" s="12" t="s">
+        <v>3982</v>
+      </c>
+      <c r="I1655" s="24">
+        <v>131783</v>
+      </c>
+      <c r="J1655" s="24">
+        <v>7.8366600000000002</v>
+      </c>
+      <c r="K1655" s="24">
+        <v>47.71725</v>
+      </c>
+      <c r="P1655" s="12" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1656">
         <v>3179</v>
       </c>
@@ -50405,8 +52296,20 @@
       <c r="G1656" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="1657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1656" t="s">
+        <v>3984</v>
+      </c>
+      <c r="I1656" s="25">
+        <v>127334</v>
+      </c>
+      <c r="J1656" s="25">
+        <v>7.8530100000000003</v>
+      </c>
+      <c r="K1656" s="25">
+        <v>47.707529999999998</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1657">
         <v>3180</v>
       </c>
@@ -50428,8 +52331,20 @@
       <c r="G1657" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="1658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1657" t="s">
+        <v>3984</v>
+      </c>
+      <c r="I1657" s="25">
+        <v>127334</v>
+      </c>
+      <c r="J1657" s="25">
+        <v>7.8530100000000003</v>
+      </c>
+      <c r="K1657" s="25">
+        <v>47.707529999999998</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1658">
         <v>3181</v>
       </c>
@@ -50451,8 +52366,20 @@
       <c r="G1658" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="1659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1658" t="s">
+        <v>3984</v>
+      </c>
+      <c r="I1658" s="25">
+        <v>127334</v>
+      </c>
+      <c r="J1658" s="25">
+        <v>7.8530100000000003</v>
+      </c>
+      <c r="K1658" s="25">
+        <v>47.707529999999998</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1659">
         <v>3182</v>
       </c>
@@ -50474,8 +52401,11 @@
       <c r="G1659" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="1660" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1659" s="25"/>
+      <c r="J1659" s="25"/>
+      <c r="K1659" s="25"/>
+    </row>
+    <row r="1660" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1660">
         <v>3183</v>
       </c>
@@ -50497,31 +52427,55 @@
       <c r="G1660" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="1661" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1661">
+      <c r="H1660" t="s">
+        <v>3985</v>
+      </c>
+      <c r="I1660" s="25">
+        <v>132933</v>
+      </c>
+      <c r="J1660" s="25">
+        <v>7.9327100000000002</v>
+      </c>
+      <c r="K1660" s="25">
+        <v>47.697249999999997</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1661" s="19">
         <v>3184</v>
       </c>
-      <c r="B1661" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1661" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1661" t="s">
+      <c r="B1661" s="20">
+        <v>44826</v>
+      </c>
+      <c r="C1661" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1661" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E1661">
-        <v>14</v>
-      </c>
-      <c r="F1661">
-        <v>14</v>
-      </c>
-      <c r="G1661" t="s">
+      <c r="E1661" s="19">
+        <v>14</v>
+      </c>
+      <c r="F1661" s="19">
+        <v>14</v>
+      </c>
+      <c r="G1661" s="19" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="1662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1661" s="19" t="s">
+        <v>3986</v>
+      </c>
+      <c r="I1661" s="19" t="s">
+        <v>3978</v>
+      </c>
+      <c r="J1661" s="19">
+        <v>8.0043799999999994</v>
+      </c>
+      <c r="K1661" s="19">
+        <v>47.741329999999998</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1662">
         <v>3185</v>
       </c>
@@ -50543,31 +52497,46 @@
       <c r="G1662" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="1663" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1663">
+      <c r="H1662" t="s">
+        <v>3987</v>
+      </c>
+      <c r="I1662" s="25">
+        <v>129590</v>
+      </c>
+      <c r="J1662" s="25">
+        <v>7.8608900000000004</v>
+      </c>
+      <c r="K1662" s="25">
+        <v>47.68233</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1663" s="10">
         <v>3186</v>
       </c>
-      <c r="B1663" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1663" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1663" t="s">
+      <c r="B1663" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1663" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1663" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E1663">
-        <v>14</v>
-      </c>
-      <c r="F1663">
+      <c r="E1663" s="10">
+        <v>14</v>
+      </c>
+      <c r="F1663" s="10">
         <v>16</v>
       </c>
-      <c r="G1663" t="s">
+      <c r="G1663" s="10" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="1664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1663" s="23"/>
+      <c r="J1663" s="23"/>
+      <c r="K1663" s="23"/>
+    </row>
+    <row r="1664" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1664">
         <v>3187</v>
       </c>
@@ -50590,7 +52559,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="1665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1665" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1665">
         <v>3188</v>
       </c>
@@ -50613,7 +52582,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="1666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1666" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1666">
         <v>3189</v>
       </c>
@@ -50635,8 +52604,27 @@
       <c r="G1666" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="1667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1666" s="12" t="s">
+        <v>3988</v>
+      </c>
+      <c r="I1666" s="24">
+        <v>133374</v>
+      </c>
+      <c r="J1666" s="24">
+        <v>7.8405500000000004</v>
+      </c>
+      <c r="K1666" s="24">
+        <v>47.681429999999999</v>
+      </c>
+      <c r="L1666" s="12"/>
+      <c r="M1666" s="12"/>
+      <c r="N1666" s="12"/>
+      <c r="O1666" s="12"/>
+      <c r="P1666" s="12" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1667">
         <v>3190</v>
       </c>
@@ -50658,8 +52646,20 @@
       <c r="G1667" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="1668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1667" t="s">
+        <v>3989</v>
+      </c>
+      <c r="I1667">
+        <v>127548</v>
+      </c>
+      <c r="J1667">
+        <v>8.0101700000000005</v>
+      </c>
+      <c r="K1667">
+        <v>47.679699999999997</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1668">
         <v>3191</v>
       </c>
@@ -50682,7 +52682,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="1669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1669" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1669">
         <v>3192</v>
       </c>
@@ -50705,7 +52705,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1670" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1670">
         <v>3193</v>
       </c>
@@ -50728,7 +52728,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="1671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1671" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1671">
         <v>3194</v>
       </c>
@@ -50750,8 +52750,20 @@
       <c r="G1671" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="1672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1671" t="s">
+        <v>3990</v>
+      </c>
+      <c r="I1671">
+        <v>128607</v>
+      </c>
+      <c r="J1671">
+        <v>8.0106099999999998</v>
+      </c>
+      <c r="K1671">
+        <v>47.702129999999997</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1672">
         <v>3195</v>
       </c>
@@ -50774,7 +52786,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1673" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1673">
         <v>3196</v>
       </c>
@@ -50797,7 +52809,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1674" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1674">
         <v>3197</v>
       </c>
@@ -50819,8 +52831,20 @@
       <c r="G1674" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="1675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1674" t="s">
+        <v>3991</v>
+      </c>
+      <c r="I1674">
+        <v>131386</v>
+      </c>
+      <c r="J1674">
+        <v>8.0655000000000001</v>
+      </c>
+      <c r="K1674">
+        <v>47.671190000000003</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1675">
         <v>3198</v>
       </c>
@@ -50842,8 +52866,20 @@
       <c r="G1675" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="1676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1675" t="s">
+        <v>3992</v>
+      </c>
+      <c r="I1675">
+        <v>132753</v>
+      </c>
+      <c r="J1675">
+        <v>8.0912299999999995</v>
+      </c>
+      <c r="K1675">
+        <v>47.686</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1676">
         <v>3199</v>
       </c>
@@ -50866,7 +52902,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="1677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1677" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1677">
         <v>3200</v>
       </c>
@@ -50888,8 +52924,20 @@
       <c r="G1677" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="1678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1677" t="s">
+        <v>3993</v>
+      </c>
+      <c r="I1677">
+        <v>131637</v>
+      </c>
+      <c r="J1677">
+        <v>8.1077399999999997</v>
+      </c>
+      <c r="K1677">
+        <v>47.698610000000002</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1678">
         <v>3201</v>
       </c>
@@ -50911,8 +52959,20 @@
       <c r="G1678" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="1679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1678" t="s">
+        <v>3994</v>
+      </c>
+      <c r="I1678">
+        <v>130337</v>
+      </c>
+      <c r="J1678">
+        <v>8.0771700000000006</v>
+      </c>
+      <c r="K1678">
+        <v>47.700110000000002</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1679">
         <v>3202</v>
       </c>
@@ -50934,8 +52994,20 @@
       <c r="G1679" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="1680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1679" t="s">
+        <v>3995</v>
+      </c>
+      <c r="I1679">
+        <v>133624</v>
+      </c>
+      <c r="J1679">
+        <v>8.1254299999999997</v>
+      </c>
+      <c r="K1679">
+        <v>47.697189999999999</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1680">
         <v>3203</v>
       </c>
@@ -50957,123 +53029,198 @@
       <c r="G1680" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="1681" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1681">
+      <c r="H1680" t="s">
+        <v>3996</v>
+      </c>
+      <c r="I1680">
+        <v>129971</v>
+      </c>
+      <c r="J1680">
+        <v>8.1251200000000008</v>
+      </c>
+      <c r="K1680">
+        <v>47.711779999999997</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1681" s="12">
         <v>3204</v>
       </c>
-      <c r="B1681" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1681" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1681" t="s">
+      <c r="B1681" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1681" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1681" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1681">
+      <c r="E1681" s="12">
         <v>15</v>
       </c>
-      <c r="F1681">
-        <v>14</v>
-      </c>
-      <c r="G1681" t="s">
+      <c r="F1681" s="12">
+        <v>14</v>
+      </c>
+      <c r="G1681" s="12" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="1682" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1682">
+      <c r="H1681" s="12" t="s">
+        <v>3997</v>
+      </c>
+      <c r="I1681" s="12">
+        <v>129585</v>
+      </c>
+      <c r="J1681" s="12">
+        <v>8.1455300000000008</v>
+      </c>
+      <c r="K1681" s="12">
+        <v>47.68929</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1682" s="12">
         <v>3205</v>
       </c>
-      <c r="B1682" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1682" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1682" t="s">
+      <c r="B1682" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1682" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1682" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1682">
+      <c r="E1682" s="12">
         <v>15</v>
       </c>
-      <c r="F1682">
+      <c r="F1682" s="12">
         <v>15</v>
       </c>
-      <c r="G1682" t="s">
+      <c r="G1682" s="12" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="1683" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1683">
+      <c r="H1682" s="12" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I1682" s="12">
+        <v>129585</v>
+      </c>
+      <c r="J1682" s="12">
+        <v>8.1455300000000008</v>
+      </c>
+      <c r="K1682" s="12">
+        <v>47.68929</v>
+      </c>
+      <c r="P1682" s="12" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1683" s="12">
         <v>3206</v>
       </c>
-      <c r="B1683" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1683" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1683" t="s">
+      <c r="B1683" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1683" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1683" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1683">
+      <c r="E1683" s="12">
         <v>15</v>
       </c>
-      <c r="F1683">
+      <c r="F1683" s="12">
         <v>15</v>
       </c>
-      <c r="G1683" t="s">
+      <c r="G1683" s="12" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="1684" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1684">
+      <c r="H1683" s="12" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I1683" s="12">
+        <v>129585</v>
+      </c>
+      <c r="J1683" s="12">
+        <v>8.1455300000000008</v>
+      </c>
+      <c r="K1683" s="12">
+        <v>47.68929</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="12">
         <v>3207</v>
       </c>
-      <c r="B1684" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1684" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1684" t="s">
+      <c r="B1684" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1684" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1684" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1684">
+      <c r="E1684" s="12">
         <v>15</v>
       </c>
-      <c r="F1684">
+      <c r="F1684" s="12">
         <v>15</v>
       </c>
-      <c r="G1684" t="s">
+      <c r="G1684" s="12" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1685" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1685">
+      <c r="H1684" s="12" t="s">
+        <v>3998</v>
+      </c>
+      <c r="I1684" s="12">
+        <v>129585</v>
+      </c>
+      <c r="J1684" s="12">
+        <v>8.1455300000000008</v>
+      </c>
+      <c r="K1684" s="12">
+        <v>47.68929</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="10">
         <v>3208</v>
       </c>
-      <c r="B1685" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1685" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1685" t="s">
+      <c r="B1685" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1685" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1685" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E1685">
+      <c r="E1685" s="10">
         <v>15</v>
       </c>
-      <c r="F1685">
+      <c r="F1685" s="10">
         <v>16</v>
       </c>
-      <c r="G1685" t="s">
+      <c r="G1685" s="10" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1685" s="10" t="s">
+        <v>4000</v>
+      </c>
+      <c r="I1685" s="10">
+        <v>127876</v>
+      </c>
+      <c r="J1685" s="10">
+        <v>8.1454699999999995</v>
+      </c>
+      <c r="K1685" s="10">
+        <v>47.702770000000001</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1686">
         <v>3209</v>
       </c>
@@ -51095,8 +53242,20 @@
       <c r="G1686" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="1687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1686" s="10" t="s">
+        <v>4001</v>
+      </c>
+      <c r="I1686">
+        <v>134161</v>
+      </c>
+      <c r="J1686">
+        <v>8.0707699999999996</v>
+      </c>
+      <c r="K1686">
+        <v>47.732590000000002</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1687">
         <v>3210</v>
       </c>
@@ -51118,8 +53277,20 @@
       <c r="G1687" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="1688" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1687" s="10" t="s">
+        <v>4002</v>
+      </c>
+      <c r="I1687">
+        <v>131614</v>
+      </c>
+      <c r="J1687">
+        <v>8.1008300000000002</v>
+      </c>
+      <c r="K1687">
+        <v>47.728459999999998</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1688">
         <v>3211</v>
       </c>
@@ -51141,8 +53312,20 @@
       <c r="G1688" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="1689" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1688" s="10" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I1688">
+        <v>130132</v>
+      </c>
+      <c r="J1688">
+        <v>8.1240900000000007</v>
+      </c>
+      <c r="K1688">
+        <v>47.734780000000001</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1689">
         <v>3212</v>
       </c>
@@ -51164,8 +53347,20 @@
       <c r="G1689" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="1690" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1689" s="10" t="s">
+        <v>4003</v>
+      </c>
+      <c r="I1689">
+        <v>130132</v>
+      </c>
+      <c r="J1689">
+        <v>8.1240900000000007</v>
+      </c>
+      <c r="K1689">
+        <v>47.734780000000001</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1690">
         <v>3213</v>
       </c>
@@ -51187,8 +53382,20 @@
       <c r="G1690" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="1691" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1690" s="10" t="s">
+        <v>4004</v>
+      </c>
+      <c r="I1690">
+        <v>133812</v>
+      </c>
+      <c r="J1690">
+        <v>8.1649100000000008</v>
+      </c>
+      <c r="K1690">
+        <v>47.734270000000002</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1691">
         <v>3214</v>
       </c>
@@ -51210,8 +53417,20 @@
       <c r="G1691" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="1692" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1691" s="10" t="s">
+        <v>4005</v>
+      </c>
+      <c r="I1691">
+        <v>132344</v>
+      </c>
+      <c r="J1691">
+        <v>8.1884800000000002</v>
+      </c>
+      <c r="K1691">
+        <v>47.674900000000001</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1692">
         <v>3215</v>
       </c>
@@ -51233,8 +53452,20 @@
       <c r="G1692" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="1693" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1692" s="10" t="s">
+        <v>4006</v>
+      </c>
+      <c r="I1692">
+        <v>128339</v>
+      </c>
+      <c r="J1692">
+        <v>8.28505</v>
+      </c>
+      <c r="K1692">
+        <v>47.724649999999997</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1693">
         <v>3216</v>
       </c>
@@ -51256,8 +53487,20 @@
       <c r="G1693" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="1694" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1693" s="10" t="s">
+        <v>4007</v>
+      </c>
+      <c r="I1693">
+        <v>129604</v>
+      </c>
+      <c r="J1693">
+        <v>8.2911300000000008</v>
+      </c>
+      <c r="K1693">
+        <v>47.717860000000002</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1694">
         <v>3217</v>
       </c>
@@ -51279,8 +53522,20 @@
       <c r="G1694" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="1695" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1694" s="10" t="s">
+        <v>4008</v>
+      </c>
+      <c r="I1694">
+        <v>129635</v>
+      </c>
+      <c r="J1694">
+        <v>8.2622599999999995</v>
+      </c>
+      <c r="K1694">
+        <v>47.674939999999999</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1695">
         <v>3218</v>
       </c>
@@ -51303,7 +53558,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="1696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1696" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1696">
         <v>3219</v>
       </c>
@@ -51325,28 +53580,55 @@
       <c r="G1696" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="1697" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1697">
+      <c r="H1696" s="10" t="s">
+        <v>4009</v>
+      </c>
+      <c r="I1696">
+        <v>130111</v>
+      </c>
+      <c r="J1696">
+        <v>8.3045399999999994</v>
+      </c>
+      <c r="K1696">
+        <v>47.683120000000002</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1697" s="12">
         <v>3220</v>
       </c>
-      <c r="B1697" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1697" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1697" t="s">
+      <c r="B1697" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1697" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1697" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1697">
+      <c r="E1697" s="12">
         <v>16</v>
       </c>
-      <c r="F1697">
+      <c r="F1697" s="12">
         <v>7</v>
       </c>
-      <c r="G1697" t="s">
+      <c r="G1697" s="12" t="s">
         <v>1337</v>
+      </c>
+      <c r="H1697" s="12" t="s">
+        <v>4010</v>
+      </c>
+      <c r="I1697" s="12">
+        <v>129082</v>
+      </c>
+      <c r="J1697" s="12">
+        <v>8.1660699999999995</v>
+      </c>
+      <c r="K1697" s="12">
+        <v>47.721730000000001</v>
+      </c>
+      <c r="P1697" s="12" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="1698" spans="1:16" x14ac:dyDescent="0.3">
@@ -51371,6 +53653,18 @@
       <c r="G1698" t="s">
         <v>1338</v>
       </c>
+      <c r="H1698" s="10" t="s">
+        <v>4012</v>
+      </c>
+      <c r="I1698">
+        <v>131835</v>
+      </c>
+      <c r="J1698">
+        <v>8.1854999999999993</v>
+      </c>
+      <c r="K1698">
+        <v>47.719740000000002</v>
+      </c>
     </row>
     <row r="1699" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1699">
@@ -51394,28 +53688,55 @@
       <c r="G1699" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="1700" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1700">
+      <c r="H1699" s="10" t="s">
+        <v>4013</v>
+      </c>
+      <c r="I1699">
+        <v>131279</v>
+      </c>
+      <c r="J1699">
+        <v>8.2260600000000004</v>
+      </c>
+      <c r="K1699">
+        <v>47.729460000000003</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1700" s="12">
         <v>3223</v>
       </c>
-      <c r="B1700" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1700" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1700" t="s">
+      <c r="B1700" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1700" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1700" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E1700">
+      <c r="E1700" s="12">
         <v>16</v>
       </c>
-      <c r="F1700">
+      <c r="F1700" s="12">
         <v>10</v>
       </c>
-      <c r="G1700" t="s">
+      <c r="G1700" s="12" t="s">
         <v>1340</v>
+      </c>
+      <c r="H1700" s="12" t="s">
+        <v>4014</v>
+      </c>
+      <c r="I1700" s="12" t="s">
+        <v>4015</v>
+      </c>
+      <c r="J1700" s="12">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="K1700" s="12">
+        <v>47.676139999999997</v>
+      </c>
+      <c r="P1700" s="12" t="s">
+        <v>4011</v>
       </c>
     </row>
     <row r="1701" spans="1:16" x14ac:dyDescent="0.3">
@@ -51440,6 +53761,18 @@
       <c r="G1701" t="s">
         <v>1341</v>
       </c>
+      <c r="H1701" s="10" t="s">
+        <v>4016</v>
+      </c>
+      <c r="I1701">
+        <v>130885</v>
+      </c>
+      <c r="J1701">
+        <v>8.2136399999999998</v>
+      </c>
+      <c r="K1701">
+        <v>47.692459999999997</v>
+      </c>
     </row>
     <row r="1702" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1702">
@@ -51463,6 +53796,18 @@
       <c r="G1702" t="s">
         <v>1342</v>
       </c>
+      <c r="H1702" s="10" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I1702">
+        <v>132495</v>
+      </c>
+      <c r="J1702">
+        <v>8.2582299999999993</v>
+      </c>
+      <c r="K1702">
+        <v>47.694719999999997</v>
+      </c>
     </row>
     <row r="1703" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1703">
@@ -51486,6 +53831,18 @@
       <c r="G1703" t="s">
         <v>1343</v>
       </c>
+      <c r="H1703" s="10" t="s">
+        <v>4017</v>
+      </c>
+      <c r="I1703">
+        <v>132495</v>
+      </c>
+      <c r="J1703">
+        <v>8.2582299999999993</v>
+      </c>
+      <c r="K1703">
+        <v>47.694719999999997</v>
+      </c>
     </row>
     <row r="1704" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1704">
@@ -51509,6 +53866,18 @@
       <c r="G1704" t="s">
         <v>1344</v>
       </c>
+      <c r="H1704" s="10" t="s">
+        <v>4018</v>
+      </c>
+      <c r="I1704">
+        <v>132377</v>
+      </c>
+      <c r="J1704">
+        <v>8.3184500000000003</v>
+      </c>
+      <c r="K1704">
+        <v>47.720100000000002</v>
+      </c>
     </row>
     <row r="1705" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1705">
@@ -51532,6 +53901,18 @@
       <c r="G1705" t="s">
         <v>1345</v>
       </c>
+      <c r="H1705" s="10" t="s">
+        <v>4019</v>
+      </c>
+      <c r="I1705">
+        <v>133853</v>
+      </c>
+      <c r="J1705">
+        <v>8.2437100000000001</v>
+      </c>
+      <c r="K1705">
+        <v>47.67342</v>
+      </c>
     </row>
     <row r="1706" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1706">
@@ -56448,41 +58829,41 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="1852" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1852" s="19">
+    <row r="1852" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1852" s="10">
         <v>3375</v>
       </c>
-      <c r="B1852" s="20">
-        <v>44826</v>
-      </c>
-      <c r="C1852" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1852" s="19" t="s">
+      <c r="B1852" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1852" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1852" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="E1852" s="19">
+      <c r="E1852" s="10">
         <v>16</v>
       </c>
-      <c r="F1852" s="19">
+      <c r="F1852" s="10">
         <v>1</v>
       </c>
-      <c r="G1852" s="19" t="s">
+      <c r="G1852" s="10" t="s">
         <v>1493</v>
       </c>
-      <c r="H1852" s="19" t="s">
+      <c r="H1852" s="10" t="s">
         <v>3878</v>
       </c>
-      <c r="I1852" s="19">
+      <c r="I1852" s="10">
         <v>128079</v>
       </c>
-      <c r="J1852" s="19">
+      <c r="J1852" s="10">
         <v>8.1713199999999997</v>
       </c>
-      <c r="K1852" s="19">
+      <c r="K1852" s="10">
         <v>47.65851</v>
       </c>
-      <c r="P1852" s="19" t="s">
+      <c r="P1852" s="10" t="s">
         <v>3879</v>
       </c>
     </row>
@@ -59164,38 +61545,38 @@
         <v>47.576219999999999</v>
       </c>
     </row>
-    <row r="1935" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1935" s="21">
+    <row r="1935" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1935" s="19">
         <v>3458</v>
       </c>
-      <c r="B1935" s="22">
-        <v>44826</v>
-      </c>
-      <c r="C1935" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1935" s="21" t="s">
+      <c r="B1935" s="20">
+        <v>44826</v>
+      </c>
+      <c r="C1935" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1935" s="19" t="s">
         <v>1577</v>
       </c>
-      <c r="E1935" s="21">
+      <c r="E1935" s="19">
         <v>10</v>
       </c>
-      <c r="F1935" s="21">
+      <c r="F1935" s="19">
         <v>1</v>
       </c>
-      <c r="G1935" s="21" t="s">
+      <c r="G1935" s="19" t="s">
         <v>1578</v>
       </c>
-      <c r="H1935" s="21" t="s">
+      <c r="H1935" s="19" t="s">
         <v>3734</v>
       </c>
-      <c r="I1935" s="21">
+      <c r="I1935" s="19">
         <v>32091</v>
       </c>
-      <c r="J1935" s="21">
+      <c r="J1935" s="19">
         <v>7.2412099999999997</v>
       </c>
-      <c r="K1935" s="21">
+      <c r="K1935" s="19">
         <v>47.485309999999998</v>
       </c>
     </row>
@@ -61260,19 +63641,19 @@
       <c r="H1994" s="10" t="s">
         <v>3902</v>
       </c>
-      <c r="I1994" s="23"/>
-      <c r="J1994" s="24">
+      <c r="I1994" s="21"/>
+      <c r="J1994" s="22">
         <v>131360</v>
       </c>
-      <c r="K1994" s="24">
+      <c r="K1994" s="22">
         <v>8.8416999999999994</v>
       </c>
-      <c r="L1994" s="24">
+      <c r="L1994" s="22">
         <v>49.270879999999998</v>
       </c>
-      <c r="M1994" s="23"/>
-      <c r="N1994" s="23"/>
-      <c r="O1994" s="23"/>
+      <c r="M1994" s="21"/>
+      <c r="N1994" s="21"/>
+      <c r="O1994" s="21"/>
     </row>
     <row r="1995" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1995">
